--- a/script/报备导入测试数据3条.xlsx
+++ b/script/报备导入测试数据3条.xlsx
@@ -479,22 +479,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>仇洪伟</t>
+          <t>李勇</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>供应商</t>
+          <t>自主招聘</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>上线前最后的供应商1126</t>
+          <t>仵鹏</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>外地市场</t>
+          <t>本地市场</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -504,20 +504,20 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>421301200305109209</t>
+          <t>441224199311171508</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>13357386282</t>
+          <t>15653154097</t>
         </is>
       </c>
       <c r="H2" s="1" t="n">
-        <v>44737.10740740741</v>
+        <v>44746.91539351852</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>田欢</t>
+          <t>文玉</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -539,35 +539,35 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>上线前最后的供应商1126</t>
+          <t>测试11</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>本地市场</t>
+          <t>外地市场</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>劳务协议</t>
+          <t>兼职协议</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>370522199402110078</t>
+          <t>430422199910298805</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>13342731783</t>
+          <t>13093245885</t>
         </is>
       </c>
       <c r="H3" s="1" t="n">
-        <v>44736.74739583334</v>
+        <v>44747.37005787037</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>洪淑珍</t>
+          <t>袁想</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -579,17 +579,17 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>仇洪伟</t>
+          <t>战丽梅</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>自主招聘</t>
+          <t>供应商</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>战丽梅</t>
+          <t>上线前最后的供应商1126</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -599,30 +599,30 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>劳务协议</t>
+          <t>劳动合同</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>654301199707121673</t>
+          <t>610323198810140066</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>13961370777</t>
+          <t>15067917606</t>
         </is>
       </c>
       <c r="H4" s="1" t="n">
-        <v>44737.24033564814</v>
+        <v>44746.68868055556</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>季勇</t>
+          <t>张倩</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
     </row>

--- a/script/报备导入测试数据3条.xlsx
+++ b/script/报备导入测试数据3条.xlsx
@@ -479,45 +479,45 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>李勇</t>
+          <t>仇洪伟</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>自主招聘</t>
+          <t>供应商</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>仵鹏</t>
+          <t>测试11</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>本地市场</t>
+          <t>外地市场</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>兼职协议</t>
+          <t>劳动合同</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>441224199311171508</t>
+          <t>542121199011130333</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>15653154097</t>
+          <t>15780264114</t>
         </is>
       </c>
       <c r="H2" s="1" t="n">
-        <v>44746.91539351852</v>
+        <v>44746.69474537037</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>文玉</t>
+          <t>李冬梅</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -529,7 +529,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>仇洪伟</t>
+          <t>朱继梅</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -544,7 +544,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>外地市场</t>
+          <t>本地市场</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -554,20 +554,20 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>430422199910298805</t>
+          <t>420325199103052624</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>13093245885</t>
+          <t>15682598588</t>
         </is>
       </c>
       <c r="H3" s="1" t="n">
-        <v>44747.37005787037</v>
+        <v>44747.52003472222</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>袁想</t>
+          <t>顾帆</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -579,7 +579,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>战丽梅</t>
+          <t>管小芳</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -589,7 +589,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>上线前最后的供应商1126</t>
+          <t>测试11</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -604,20 +604,20 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>610323198810140066</t>
+          <t>53092420040602592X</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>15067917606</t>
+          <t>15954569569</t>
         </is>
       </c>
       <c r="H4" s="1" t="n">
-        <v>44746.68868055556</v>
+        <v>44746.76626157408</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>张倩</t>
+          <t>秦波</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">

--- a/script/报备导入测试数据3条.xlsx
+++ b/script/报备导入测试数据3条.xlsx
@@ -479,17 +479,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>仇洪伟</t>
+          <t>李勇</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>供应商</t>
+          <t>院校</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>测试11</t>
+          <t>二级院校</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -504,20 +504,20 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>542121199011130333</t>
+          <t>450123200207042022</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>15780264114</t>
+          <t>18918820242</t>
         </is>
       </c>
       <c r="H2" s="1" t="n">
-        <v>44746.69474537037</v>
+        <v>44747.05369212963</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>李冬梅</t>
+          <t>王波</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -554,32 +554,32 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>420325199103052624</t>
+          <t>21140119900329127X</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>15682598588</t>
+          <t>13692290233</t>
         </is>
       </c>
       <c r="H3" s="1" t="n">
-        <v>44747.52003472222</v>
+        <v>44747.49565972222</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>顾帆</t>
+          <t>张玉</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>管小芳</t>
+          <t>朱继梅</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -589,7 +589,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>测试11</t>
+          <t>上线前最后的供应商1126</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -599,25 +599,25 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>劳动合同</t>
+          <t>兼职协议</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>53092420040602592X</t>
+          <t>44130020010306701X</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>15954569569</t>
+          <t>13569433251</t>
         </is>
       </c>
       <c r="H4" s="1" t="n">
-        <v>44746.76626157408</v>
+        <v>44747.39966435185</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>秦波</t>
+          <t>王峰</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
